--- a/Assets/GameMain/DataTables/Data/__enums__.xlsx
+++ b/Assets/GameMain/DataTables/Data/__enums__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\OasisProject3D\Luban\Config\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\OasisProject3D\Assets\GameMain\DataTables\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA829833-ACD1-4AA1-AFAF-059BA0448567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2343586-EFBA-4EF3-B462-C393E5698C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12900" yWindow="4155" windowWidth="29520" windowHeight="15375" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -123,14 +123,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Functional</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Production</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Storage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -147,27 +139,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SandCtrl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治沙建筑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>是否为标志类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BuildingRes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>建筑材料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Power</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -211,7 +187,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>能量</t>
+    <t>Function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eco</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生态建筑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Electricity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuildingMaterial</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -655,8 +655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482160D1-8E9F-4701-8C89-55D43E73138E}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -667,7 +667,7 @@
     <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.75" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.75" bestFit="1" customWidth="1"/>
@@ -734,7 +734,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>16</v>
@@ -758,7 +758,7 @@
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C4" s="2" t="b">
         <v>1</v>
@@ -807,7 +807,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>22</v>
@@ -821,7 +821,7 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C7" s="3" t="b">
         <v>1</v>
@@ -832,10 +832,10 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I7" s="3">
         <v>1</v>
@@ -851,10 +851,10 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I8" s="3">
         <v>2</v>
@@ -870,10 +870,10 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I9" s="3">
         <v>4</v>
@@ -889,10 +889,10 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="I10" s="3">
         <v>8</v>
@@ -903,7 +903,7 @@
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C11" s="4" t="b">
         <v>0</v>
@@ -914,10 +914,10 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="I11" s="2">
         <v>0</v>
@@ -933,10 +933,10 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
@@ -952,10 +952,10 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="2" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I13" s="2">
         <v>2</v>
@@ -971,10 +971,10 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="2" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I14" s="2">
         <v>3</v>
@@ -990,10 +990,10 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I15" s="2">
         <v>4</v>

--- a/Assets/GameMain/DataTables/Data/__enums__.xlsx
+++ b/Assets/GameMain/DataTables/Data/__enums__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\OasisProject3D\Assets\GameMain\DataTables\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2343586-EFBA-4EF3-B462-C393E5698C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98180D8A-B314-4F98-B92C-41C9934923EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="38700" windowHeight="15345" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
   <si>
     <t>枚举名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -212,6 +212,14 @@
   </si>
   <si>
     <t>BuildingMaterial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Any</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -320,7 +328,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -334,6 +342,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -653,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482160D1-8E9F-4701-8C89-55D43E73138E}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -693,13 +710,13 @@
       <c r="F1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -832,10 +849,10 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="I7" s="3">
         <v>1</v>
@@ -851,10 +868,10 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I8" s="3">
         <v>2</v>
@@ -870,10 +887,10 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I9" s="3">
         <v>4</v>
@@ -889,10 +906,10 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="I10" s="3">
         <v>8</v>
@@ -901,45 +918,45 @@
       <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D11" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0</v>
-      </c>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="3">
+        <v>16</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="B12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="I12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -952,13 +969,13 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="I13" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -971,13 +988,13 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I14" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -990,16 +1007,54 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I15" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="2">
+        <v>4</v>
+      </c>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" s="2">
+        <v>5</v>
+      </c>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Assets/GameMain/DataTables/Data/__enums__.xlsx
+++ b/Assets/GameMain/DataTables/Data/__enums__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\OasisProject3D\Assets\GameMain\DataTables\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98180D8A-B314-4F98-B92C-41C9934923EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFC73E1-B2F7-457F-995B-46A6FAD71337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="38700" windowHeight="15345" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
+    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -203,23 +203,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Electricity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>电力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BuildingMaterial</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Any</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>任意类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuildingRes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -672,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482160D1-8E9F-4701-8C89-55D43E73138E}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -849,10 +849,10 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I7" s="3">
         <v>1</v>
@@ -950,10 +950,10 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I12" s="2">
         <v>0</v>
@@ -1007,10 +1007,10 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="I15" s="2">
         <v>3</v>
@@ -1026,7 +1026,7 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>29</v>
